--- a/RT/docs/acronyms.xlsx
+++ b/RT/docs/acronyms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Dropbox\Kate and Julian IAEA 2019\Radiotherapy\Survey\data\reference\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA\RT\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D865A9A8-D8BE-4CC8-B583-FAEF825383EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4579339-CE24-4DCE-9E07-B7D6742E4F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-192" yWindow="0" windowWidth="23076" windowHeight="12480" xr2:uid="{AA01B3EA-B5FB-4AC1-B03B-C97842D39369}"/>
+    <workbookView xWindow="444" yWindow="1020" windowWidth="21600" windowHeight="11220" xr2:uid="{AA01B3EA-B5FB-4AC1-B03B-C97842D39369}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -52,6 +52,36 @@
   </si>
   <si>
     <t>Government Party</t>
+  </si>
+  <si>
+    <t>Radiotherapy</t>
+  </si>
+  <si>
+    <t>RT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cooperative Agreement for Research </t>
+  </si>
+  <si>
+    <t>RCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radio Oncology </t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IAEA Technical Co-operation Programme </t>
+  </si>
+  <si>
+    <t>TCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Member States </t>
+  </si>
+  <si>
+    <t>MS</t>
   </si>
 </sst>
 </file>
@@ -111,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -122,6 +152,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,7 +470,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -456,12 +487,20 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -480,16 +519,28 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>

--- a/RT/docs/acronyms.xlsx
+++ b/RT/docs/acronyms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA\RT\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4579339-CE24-4DCE-9E07-B7D6742E4F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EC67BE-8A5C-4BB7-984C-47B38EA21ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="444" yWindow="1020" windowWidth="21600" windowHeight="11220" xr2:uid="{AA01B3EA-B5FB-4AC1-B03B-C97842D39369}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{AA01B3EA-B5FB-4AC1-B03B-C97842D39369}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>MS</t>
+  </si>
+  <si>
+    <t>Educational /training programmes</t>
+  </si>
+  <si>
+    <t>ET</t>
   </si>
 </sst>
 </file>
@@ -470,7 +476,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,8 +549,12 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>

--- a/RT/docs/acronyms.xlsx
+++ b/RT/docs/acronyms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA\RT\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EC67BE-8A5C-4BB7-984C-47B38EA21ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9852492F-1735-4429-9EAA-435657E491AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{AA01B3EA-B5FB-4AC1-B03B-C97842D39369}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AA01B3EA-B5FB-4AC1-B03B-C97842D39369}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -88,6 +88,30 @@
   </si>
   <si>
     <t>ET</t>
+  </si>
+  <si>
+    <t>3-dimensional Conformal Radiation Therapy</t>
+  </si>
+  <si>
+    <t>3D-CRT</t>
+  </si>
+  <si>
+    <t>Intensity-Modulated Radiation Therapy</t>
+  </si>
+  <si>
+    <t>IMRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stereotactic Body </t>
+  </si>
+  <si>
+    <t>SRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-dimensional Image-Guided Brachytherapy </t>
+  </si>
+  <si>
+    <t>3D-IGBT</t>
   </si>
 </sst>
 </file>
@@ -147,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -159,6 +183,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,13 +503,10 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="29.88671875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="46.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -557,20 +581,36 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>

--- a/RT/docs/acronyms.xlsx
+++ b/RT/docs/acronyms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repositaries\1.work\IAEA\RT\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9852492F-1735-4429-9EAA-435657E491AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08C7C8A-DBDD-46F6-8BAF-BDA747A1E33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AA01B3EA-B5FB-4AC1-B03B-C97842D39369}"/>
   </bookViews>
@@ -503,7 +503,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,43 +517,43 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
+      <c r="A5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -566,50 +566,50 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
+      <c r="A11" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -622,7 +622,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B13">
-    <sortCondition ref="B2:B13"/>
+    <sortCondition ref="A2:A13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
